--- a/アプリケーション方式設計書_1はじめに.xlsx
+++ b/アプリケーション方式設計書_1はじめに.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8625A8-E8C1-4513-AA60-979F0FBDABF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA03645-0A25-48F3-B686-51C944E398A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2910" windowWidth="16965" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="2" r:id="rId1"/>
@@ -137,22 +137,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://docs.spring.io/spring-framework/docs/5.3.x/reference/html/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://docs.spring.io/spring-boot/docs/2.7.x/reference/html/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://spring.pleiades.io/spring-framework/docs/5.3.x/reference/html/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://spring.pleiades.io/spring-boot/docs/2.7.x/reference/html/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>これは本システムに必要な機能を追加するにあたってゼロから開発するよりも、十分テスト済みで高品質なNablarch Application Frameworkの機能を</t>
     <rPh sb="3" eb="4">
       <t>ホン</t>
@@ -212,10 +196,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://nablarch.github.io/docs/5u21/doc/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
     <phoneticPr fontId="2"/>
@@ -494,6 +474,23 @@
       <t>フ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-boot/docs/3.2.x/reference/html/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://spring.pleiades.io/spring-boot/docs/3.2.x/reference/html/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-framework/docs/6.1.x/reference/html/</t>
+  </si>
+  <si>
+    <t>https://spring.pleiades.io/spring-framework/docs/6.1.x/reference/html/</t>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/6/doc/</t>
   </si>
 </sst>
 </file>
@@ -4192,85 +4189,85 @@
     <row r="19" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="35" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="35" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="35" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="35" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="35" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4327,12 +4324,12 @@
         <v>1.3.</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
@@ -4342,14 +4339,14 @@
       <c r="J82" s="16"/>
       <c r="K82" s="15"/>
       <c r="L82" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
       <c r="O82" s="16"/>
       <c r="P82" s="15"/>
       <c r="Q82" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R82" s="16"/>
       <c r="S82" s="16"/>
@@ -4379,7 +4376,7 @@
       <c r="J83" s="13"/>
       <c r="K83" s="12"/>
       <c r="L83" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
@@ -4406,7 +4403,7 @@
     </row>
     <row r="84" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D84" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
@@ -4416,14 +4413,14 @@
       <c r="J84" s="10"/>
       <c r="K84" s="9"/>
       <c r="L84" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
       <c r="Q84" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
@@ -4447,7 +4444,7 @@
       <c r="D85" s="8"/>
       <c r="K85" s="7"/>
       <c r="Q85" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AH85" s="7"/>
     </row>
@@ -4455,7 +4452,7 @@
       <c r="D86" s="8"/>
       <c r="K86" s="7"/>
       <c r="Q86" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AH86" s="7"/>
     </row>
@@ -4463,7 +4460,7 @@
       <c r="D87" s="8"/>
       <c r="K87" s="7"/>
       <c r="Q87" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AH87" s="7"/>
     </row>
@@ -4471,7 +4468,7 @@
       <c r="D88" s="8"/>
       <c r="K88" s="7"/>
       <c r="Q88" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AH88" s="7"/>
     </row>
@@ -4479,7 +4476,7 @@
       <c r="D89" s="8"/>
       <c r="K89" s="7"/>
       <c r="Q89" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH89" s="7"/>
     </row>
@@ -4518,7 +4515,7 @@
     </row>
     <row r="91" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D91" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
@@ -4528,14 +4525,14 @@
       <c r="J91" s="10"/>
       <c r="K91" s="9"/>
       <c r="L91" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
       <c r="Q91" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R91" s="10"/>
       <c r="S91" s="10"/>
@@ -4559,7 +4556,7 @@
       <c r="D92" s="8"/>
       <c r="K92" s="7"/>
       <c r="Q92" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AH92" s="7"/>
     </row>
@@ -4598,7 +4595,7 @@
     </row>
     <row r="94" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D94" s="19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -4608,14 +4605,14 @@
       <c r="J94" s="20"/>
       <c r="K94" s="21"/>
       <c r="L94" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M94" s="20"/>
       <c r="N94" s="20"/>
       <c r="O94" s="20"/>
       <c r="P94" s="20"/>
       <c r="Q94" s="19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="R94" s="20"/>
       <c r="S94" s="20"/>

--- a/アプリケーション方式設計書_1はじめに.xlsx
+++ b/アプリケーション方式設計書_1はじめに.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA03645-0A25-48F3-B686-51C944E398A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9062F8D-217A-480F-86D0-518343E038EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,13 +484,13 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://docs.spring.io/spring-framework/docs/6.1.x/reference/html/</t>
-  </si>
-  <si>
-    <t>https://spring.pleiades.io/spring-framework/docs/6.1.x/reference/html/</t>
-  </si>
-  <si>
     <t>https://nablarch.github.io/docs/6/doc/</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-framework/reference/6.1/</t>
+  </si>
+  <si>
+    <t>https://spring.pleiades.io/spring-framework/reference/6.1/</t>
   </si>
 </sst>
 </file>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="25" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4226,7 +4226,7 @@
     </row>
     <row r="29" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4262,7 +4262,7 @@
     </row>
     <row r="37" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
